--- a/MNST.xlsx
+++ b/MNST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47B8220-CDBF-4BC6-B7CB-0D6486418317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154658B2-3E59-45A0-859A-274EAA5BABBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46485" yWindow="2640" windowWidth="22410" windowHeight="14220" xr2:uid="{648A922D-0C8D-4625-A35E-4B992C513EF5}"/>
+    <workbookView xWindow="-29055" yWindow="2820" windowWidth="23580" windowHeight="17325" activeTab="1" xr2:uid="{648A922D-0C8D-4625-A35E-4B992C513EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Price</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>CapEx</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -165,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -185,6 +197,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,6 +215,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4985FB-5BB0-94B3-E5FA-4444A75982C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="54429"/>
+          <a:ext cx="0" cy="4708071"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,21 +591,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF9C36F-AD3D-4797-937D-7E5A711D4365}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+        <v>48.17</v>
+      </c>
+    </row>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
@@ -548,16 +616,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="4">
         <f>+M2*M3</f>
-        <v>45218</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+        <v>47351.11</v>
+      </c>
+    </row>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -569,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -580,13 +648,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="4">
         <f>+M4-M5+M6</f>
-        <v>43334.714999999997</v>
+        <v>45467.824999999997</v>
       </c>
     </row>
   </sheetData>
@@ -596,28 +664,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5B5E9F-9163-417D-99D5-840C8108515A}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="Y23" sqref="S23:Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -642,297 +710,1077 @@
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>2016</v>
+      </c>
+      <c r="R2">
+        <v>2017</v>
+      </c>
+      <c r="S2">
+        <v>2018</v>
+      </c>
+      <c r="T2">
+        <v>2019</v>
+      </c>
+      <c r="U2">
+        <v>2020</v>
+      </c>
+      <c r="V2">
+        <v>2021</v>
+      </c>
+      <c r="W2">
+        <v>2022</v>
+      </c>
+      <c r="X2">
+        <v>2023</v>
+      </c>
+      <c r="Y2">
+        <v>2024</v>
+      </c>
+      <c r="Z2">
+        <f>+Y2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AA2">
+        <f>+Z2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AB2">
+        <f>+AA2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AC2">
+        <f>+AB2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AD2">
+        <f>+AC2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AE2">
+        <f>+AD2+1</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="8">
+        <v>1698.93</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1854.961</v>
+      </c>
       <c r="E3" s="8">
         <v>1856.028</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="8">
+        <v>1730.1079999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1899.098</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1900.597</v>
+      </c>
       <c r="I3" s="8">
         <v>1880.973</v>
       </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="8">
+        <v>1812.0409999999999</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1854.558</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>3049.393</v>
+      </c>
+      <c r="R3" s="7">
+        <v>3369.0450000000001</v>
+      </c>
+      <c r="S3" s="7">
+        <v>3807.183</v>
+      </c>
+      <c r="T3" s="7">
+        <v>4200.8190000000004</v>
+      </c>
+      <c r="U3" s="7">
+        <v>4598.6379999999999</v>
+      </c>
+      <c r="V3" s="7">
+        <v>5541.3519999999999</v>
+      </c>
+      <c r="W3" s="7">
+        <v>6311.05</v>
+      </c>
+      <c r="X3" s="7">
+        <f>SUM(C3:F3)</f>
+        <v>7140.027</v>
+      </c>
+      <c r="Y3" s="7">
+        <f>SUM(G3:J3)</f>
+        <v>7492.7089999999998</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>7940</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>8570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="5">
+        <v>801.08100000000002</v>
+      </c>
+      <c r="D4" s="5">
+        <v>880.73900000000003</v>
+      </c>
       <c r="E4" s="5">
         <v>872.26499999999999</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="5">
+        <v>791.73599999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <v>871.96900000000005</v>
+      </c>
+      <c r="H4" s="5">
+        <v>881.09100000000001</v>
+      </c>
       <c r="I4" s="5">
         <v>881.17399999999998</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="5">
+        <v>809.596</v>
+      </c>
+      <c r="K4" s="4">
+        <v>806.596</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1231.355</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1511.808</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1682.2339999999999</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1874.758</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2432.8389999999999</v>
+      </c>
+      <c r="W4" s="4">
+        <v>3136.4830000000002</v>
+      </c>
+      <c r="X4" s="4">
+        <v>3345.8209999999999</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM(G4:J4)</f>
+        <v>3443.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5" si="0">+C3-C4</f>
+        <v>897.84900000000005</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:E5" si="1">+D3-D4</f>
+        <v>974.22199999999998</v>
+      </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:H5" si="0">+E3-E4</f>
+        <f t="shared" ref="E5:H5" si="2">+E3-E4</f>
         <v>983.76300000000003</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F5:G5" si="3">+F3-F4</f>
+        <v>938.37199999999996</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1027.1289999999999</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1019.506</v>
       </c>
       <c r="I5" s="5">
         <f>+I3-I4</f>
         <v>999.79899999999998</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="5">
+        <f>+J3-J4</f>
+        <v>1002.4449999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <f>+K3-K4</f>
+        <v>1047.962</v>
+      </c>
+      <c r="R5" s="4">
+        <f>+R3-R4</f>
+        <v>2137.69</v>
+      </c>
+      <c r="S5" s="4">
+        <f>+S3-S4</f>
+        <v>2295.375</v>
+      </c>
+      <c r="T5" s="4">
+        <f>+T3-T4</f>
+        <v>2518.5850000000005</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" ref="U5:X5" si="4">+U3-U4</f>
+        <v>2723.88</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="4"/>
+        <v>3108.5129999999999</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="4"/>
+        <v>3174.567</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="4"/>
+        <v>3794.2060000000001</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>+Y3-Y4</f>
+        <v>4048.8789999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="5">
+        <v>412.78500000000003</v>
+      </c>
+      <c r="D6" s="5">
+        <v>450.41699999999997</v>
+      </c>
       <c r="E6" s="5">
         <v>473.23599999999999</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="5">
+        <v>504.41399999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>485.13799999999998</v>
+      </c>
+      <c r="H6" s="5">
+        <v>492.34300000000002</v>
+      </c>
       <c r="I6" s="5">
         <v>519.88300000000004</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="5">
+        <v>621.221</v>
+      </c>
+      <c r="K6" s="5">
+        <v>478.21699999999998</v>
+      </c>
+      <c r="R6" s="4">
+        <v>938.90300000000002</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1011.756</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1115.646</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1090.7270000000001</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1311.046</v>
+      </c>
+      <c r="W6" s="4">
+        <v>1589.846</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" ref="X6" si="5">SUM(F6:I6)</f>
+        <v>2001.778</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM(G6:J6)</f>
+        <v>2118.585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7" si="6">+C5-C6</f>
+        <v>485.06400000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:E7" si="7">+D5-D6</f>
+        <v>523.80500000000006</v>
+      </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:H7" si="1">+E5-E6</f>
+        <f t="shared" ref="E7:H7" si="8">+E5-E6</f>
         <v>510.52700000000004</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="F7:G7" si="9">+F5-F6</f>
+        <v>433.95799999999997</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>541.99099999999999</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>527.16300000000001</v>
       </c>
       <c r="I7" s="5">
         <f>+I5-I6</f>
         <v>479.91599999999994</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="5">
+        <f>+J5-J6</f>
+        <v>381.22399999999993</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ref="J7:K7" si="10">+K5-K6</f>
+        <v>569.745</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" ref="Q7" si="11">+Q5-Q6</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" ref="R7" si="12">+R5-R6</f>
+        <v>1198.787</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" ref="S7" si="13">+S5-S6</f>
+        <v>1283.6190000000001</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" ref="T7" si="14">+T5-T6</f>
+        <v>1402.9390000000005</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" ref="U7:V7" si="15">+U5-U6</f>
+        <v>1633.153</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="15"/>
+        <v>1797.4669999999999</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" ref="W7" si="16">+W5-W6</f>
+        <v>1584.721</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" ref="X7" si="17">+X5-X6</f>
+        <v>1792.4280000000001</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>+Y5-Y6</f>
+        <v>1930.2939999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5">
+        <v>12.496</v>
+      </c>
+      <c r="D8" s="5">
+        <v>15.159000000000001</v>
+      </c>
       <c r="E8" s="5">
         <v>71.356999999999999</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5">
+        <v>16.117000000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>35.753999999999998</v>
+      </c>
+      <c r="H8" s="5">
+        <v>24.376000000000001</v>
+      </c>
       <c r="I8" s="5">
         <v>-5.82</v>
       </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="5">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>8.2720000000000002</v>
+      </c>
+      <c r="R8" s="4">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="S8" s="4">
+        <v>9.6530000000000005</v>
+      </c>
+      <c r="T8" s="4">
+        <v>13.023</v>
+      </c>
+      <c r="U8" s="4">
+        <v>-6.9960000000000004</v>
+      </c>
+      <c r="V8" s="4">
+        <v>3.952</v>
+      </c>
+      <c r="W8" s="4">
+        <v>-12.757</v>
+      </c>
+      <c r="X8" s="4">
+        <v>115.127</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUM(G8:J8)</f>
+        <v>59.163999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9" si="18">+C7+C8</f>
+        <v>497.56</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:E9" si="19">+D7+D8</f>
+        <v>538.96400000000006</v>
+      </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:H9" si="2">+E7+E8</f>
+        <f t="shared" ref="E9:H9" si="20">+E7+E8</f>
         <v>581.88400000000001</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="F9:G9" si="21">+F7+F8</f>
+        <v>450.07499999999999</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>577.745</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>551.53899999999999</v>
       </c>
       <c r="I9" s="5">
         <f>+I7+I8</f>
         <v>474.09599999999995</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="5">
+        <f>+J7+J8</f>
+        <v>386.07799999999992</v>
+      </c>
+      <c r="K9" s="5">
+        <f>+K7+K8</f>
+        <v>578.01700000000005</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" ref="Q9" si="22">+Q7+Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" ref="R9" si="23">+R7+R8</f>
+        <v>1201.623</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" ref="S9" si="24">+S7+S8</f>
+        <v>1293.2720000000002</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" ref="T9:V9" si="25">+T7+T8</f>
+        <v>1415.9620000000004</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="25"/>
+        <v>1626.1569999999999</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="25"/>
+        <v>1801.4189999999999</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" ref="W9" si="26">+W7+W8</f>
+        <v>1571.9639999999999</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" ref="X9" si="27">+X7+X8</f>
+        <v>1907.5550000000001</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>+Y7+Y8</f>
+        <v>1989.4579999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5">
+        <v>100.116</v>
+      </c>
+      <c r="D10" s="5">
+        <v>125.093</v>
+      </c>
       <c r="E10" s="5">
         <v>129.19</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="5">
+        <v>83.096999999999994</v>
+      </c>
+      <c r="G10" s="5">
+        <v>135.696</v>
+      </c>
+      <c r="H10" s="5">
+        <v>126.17</v>
+      </c>
       <c r="I10" s="5">
         <v>103.17700000000001</v>
       </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="5">
+        <v>115.367</v>
+      </c>
+      <c r="K10" s="4">
+        <v>135.024</v>
+      </c>
+      <c r="R10" s="4">
+        <v>380.94499999999999</v>
+      </c>
+      <c r="S10" s="4">
+        <v>300.26799999999997</v>
+      </c>
+      <c r="T10" s="4">
+        <v>308.12700000000001</v>
+      </c>
+      <c r="U10" s="4">
+        <v>216.56299999999999</v>
+      </c>
+      <c r="V10" s="4">
+        <v>423.94400000000002</v>
+      </c>
+      <c r="W10" s="4">
+        <v>380.34</v>
+      </c>
+      <c r="X10" s="4">
+        <v>437.49400000000003</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUM(G10:J10)</f>
+        <v>480.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11" si="28">+C9-C10</f>
+        <v>397.44400000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:E11" si="29">+D9-D10</f>
+        <v>413.87100000000004</v>
+      </c>
       <c r="E11" s="5">
-        <f t="shared" ref="E11:H11" si="3">+E9-E10</f>
+        <f t="shared" ref="E11:H11" si="30">+E9-E10</f>
         <v>452.69400000000002</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="F11:G11" si="31">+F9-F10</f>
+        <v>366.97800000000001</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>442.04899999999998</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>425.36899999999997</v>
       </c>
       <c r="I11" s="5">
         <f>+I9-I10</f>
         <v>370.91899999999993</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="5">
+        <f>+J9-J10</f>
+        <v>270.7109999999999</v>
+      </c>
+      <c r="K11" s="5">
+        <f>+K9-K10</f>
+        <v>442.99300000000005</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" ref="Q11" si="32">+Q9-Q10</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" ref="R11" si="33">+R9-R10</f>
+        <v>820.67800000000011</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" ref="S11" si="34">+S9-S10</f>
+        <v>993.00400000000013</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" ref="T11:V11" si="35">+T9-T10</f>
+        <v>1107.8350000000005</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="35"/>
+        <v>1409.5940000000001</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="35"/>
+        <v>1377.4749999999999</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" ref="W11" si="36">+W9-W10</f>
+        <v>1191.624</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" ref="X11" si="37">+X9-X10</f>
+        <v>1470.0610000000001</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>+Y9-Y10</f>
+        <v>1509.0479999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ref="C12:D12" si="38">+C11/C13</f>
+        <v>0.37527677611184923</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="38"/>
+        <v>0.39041008666220794</v>
       </c>
       <c r="E12" s="6">
         <f>+E11/E13</f>
         <v>0.42708351022579977</v>
       </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12" si="39">+F11/F13</f>
+        <v>0.34866473353576738</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" ref="G12:H12" si="40">+G11/G13</f>
+        <v>0.42048565465783683</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="40"/>
+        <v>0.41004243390548095</v>
+      </c>
       <c r="I12" s="6">
         <f>+I11/I13</f>
         <v>0.37726804391097774</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="6">
+        <f>+J11/J13</f>
+        <v>0.27597044473577426</v>
+      </c>
+      <c r="K12" s="6">
+        <f>+K11/K13</f>
+        <v>0.45144311217366673</v>
+      </c>
+      <c r="Q12" s="1" t="e">
+        <f t="shared" ref="Q12" si="41">+Q11/Q13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ref="R12" si="42">+R11/R13</f>
+        <v>0.71098570366686842</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" ref="S12" si="43">+S11/S13</f>
+        <v>0.87992641611756417</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" ref="T12:V12" si="44">+T11/T13</f>
+        <v>1.0133724716798882</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="44"/>
+        <v>1.396132490526345</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="44"/>
+        <v>1.2858240344709775</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" ref="W12" si="45">+W11/W13</f>
+        <v>1.1173828487625206</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" ref="X12" si="46">+X11/X13</f>
+        <v>1.3894965977649885</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>+Y11/Y13</f>
+        <v>1.4893979998386286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5">
+        <v>1059.069</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1060.0930000000001</v>
+      </c>
       <c r="E13" s="5">
         <v>1059.9659999999999</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="5">
+        <v>1052.5239999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1051.2819999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1037.3779999999999</v>
+      </c>
       <c r="I13" s="5">
         <v>983.17100000000005</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="5">
+        <v>980.94200000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>981.28200000000004</v>
+      </c>
+      <c r="R13" s="4">
+        <f>577.141*2</f>
+        <v>1154.2819999999999</v>
+      </c>
+      <c r="S13" s="4">
+        <f>564.254*2</f>
+        <v>1128.508</v>
+      </c>
+      <c r="T13" s="4">
+        <f>546.608*2</f>
+        <v>1093.2159999999999</v>
+      </c>
+      <c r="U13" s="4">
+        <f>504.821*2</f>
+        <v>1009.6420000000001</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1071.278</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1066.442</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1057.981</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>AVERAGE(G13:J13)</f>
+        <v>1013.19325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17" si="47">+H3/D3-1</f>
+        <v>2.4602134492315519E-2</v>
       </c>
       <c r="I17" s="3">
         <f>+I3/E3-1</f>
         <v>1.3439991207029101E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="3">
+        <f t="shared" ref="J17:K17" si="48">+J3/F3-1</f>
+        <v>4.7357159206246058E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="48"/>
+        <v>-2.3453239379958246E-2</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" ref="R17:U17" si="49">+R3/Q3-1</f>
+        <v>0.10482479627912844</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="49"/>
+        <v>0.13004812936603694</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="49"/>
+        <v>0.10339298110965522</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" ref="U17:Y17" si="50">+U3/T3-1</f>
+        <v>9.4700342956932859E-2</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" si="50"/>
+        <v>0.204998523475864</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="50"/>
+        <v>0.13890075923709588</v>
+      </c>
+      <c r="X17" s="9">
+        <f t="shared" si="50"/>
+        <v>0.13135326134319958</v>
+      </c>
+      <c r="Y17" s="9">
+        <f>+Y3/X3-1</f>
+        <v>4.9395051307228988E-2</v>
+      </c>
+      <c r="Z17" s="9">
+        <f>+Z3/Y3-1</f>
+        <v>5.9696833281527528E-2</v>
+      </c>
+      <c r="AA17" s="9">
+        <f>+AA3/Z3-1</f>
+        <v>7.9345088161208999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="5">
+        <v>424.47500000000002</v>
+      </c>
+      <c r="D20" s="5">
+        <f>763.162-C20</f>
+        <v>338.68700000000001</v>
+      </c>
       <c r="E20" s="5">
         <v>1283.4259999999999</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="5">
+        <v>412.142</v>
+      </c>
+      <c r="H20" s="5">
+        <f>848.433-G20</f>
+        <v>436.291</v>
+      </c>
       <c r="I20" s="5">
-        <v>1466.8320000000001</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>1466.832-H20-G20</f>
+        <v>618.39900000000011</v>
+      </c>
+      <c r="J20" s="5">
+        <f>+Y20-I20-H20-G20</f>
+        <v>461.70099999999985</v>
+      </c>
+      <c r="R20" s="4">
+        <v>987.73099999999999</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1161.8810000000001</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1113.7619999999999</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1364.163</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1155.741</v>
+      </c>
+      <c r="W20" s="4">
+        <v>887.69899999999996</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1717.7529999999999</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>1928.5329999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="D21" s="5">
+        <f>82.425-C21</f>
+        <v>42.324999999999996</v>
+      </c>
       <c r="E21" s="5">
         <v>110.224</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5">
+        <v>66.043999999999997</v>
+      </c>
+      <c r="H21" s="5">
+        <f>125.812-G21</f>
+        <v>59.768000000000001</v>
+      </c>
       <c r="I21" s="5">
-        <v>172.79499999999999</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>172.795-H21-G21</f>
+        <v>46.98299999999999</v>
+      </c>
+      <c r="J21" s="5">
+        <f>+Y21-I21-H21-G21</f>
+        <v>91.279000000000011</v>
+      </c>
+      <c r="R21" s="4">
+        <v>83.435000000000002</v>
+      </c>
+      <c r="S21" s="4">
+        <v>61.941000000000003</v>
+      </c>
+      <c r="T21" s="4">
+        <v>101.661</v>
+      </c>
+      <c r="U21" s="4">
+        <v>48.722000000000001</v>
+      </c>
+      <c r="V21" s="4">
+        <v>43.868000000000002</v>
+      </c>
+      <c r="W21" s="4">
+        <v>188.726</v>
+      </c>
+      <c r="X21" s="4">
+        <v>221.428</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>264.07400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="5">
+        <f>+C20-C21</f>
+        <v>384.375</v>
+      </c>
+      <c r="D22" s="5">
+        <f>+D20-D21</f>
+        <v>296.36200000000002</v>
+      </c>
       <c r="E22" s="5">
         <f>+E20-E21</f>
         <v>1173.202</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="5">
+        <f>+G20-G21</f>
+        <v>346.09800000000001</v>
+      </c>
+      <c r="H22" s="5">
+        <f>+H20-H21</f>
+        <v>376.52300000000002</v>
+      </c>
       <c r="I22" s="5">
         <f>+I20-I21</f>
-        <v>1294.037</v>
-      </c>
-      <c r="J22" s="5"/>
+        <v>571.41600000000017</v>
+      </c>
+      <c r="J22" s="5">
+        <f>+J20-J21</f>
+        <v>370.42199999999985</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" ref="R22" si="51">+R20-R21</f>
+        <v>904.29600000000005</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" ref="S22" si="52">+S20-S21</f>
+        <v>1099.94</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" ref="T22:V22" si="53">+T20-T21</f>
+        <v>1012.1009999999999</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="53"/>
+        <v>1315.441</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="53"/>
+        <v>1111.873</v>
+      </c>
+      <c r="W22" s="4">
+        <f>+W20-W21</f>
+        <v>698.97299999999996</v>
+      </c>
+      <c r="X22" s="4">
+        <f>+X20-X21</f>
+        <v>1496.3249999999998</v>
+      </c>
+      <c r="Y22" s="4">
+        <f>+Y20-Y21</f>
+        <v>1664.4589999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="S23" s="9">
+        <f>S22/R22-1</f>
+        <v>0.21634951387598744</v>
+      </c>
+      <c r="T23" s="9">
+        <f>T22/S22-1</f>
+        <v>-7.9857992254123156E-2</v>
+      </c>
+      <c r="U23" s="9">
+        <f>U22/T22-1</f>
+        <v>0.29971317091871286</v>
+      </c>
+      <c r="V23" s="9">
+        <f>V22/U22-1</f>
+        <v>-0.15475266469571802</v>
+      </c>
+      <c r="W23" s="9">
+        <f>W22/V22-1</f>
+        <v>-0.37135536162853133</v>
+      </c>
+      <c r="X23" s="9">
+        <f>X22/W22-1</f>
+        <v>1.1407479258855493</v>
+      </c>
+      <c r="Y23" s="9">
+        <f>Y22/X22-1</f>
+        <v>0.11236462666867153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>